--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t>Differenz (verfügbare Stunden)</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Architektur</t>
+  </si>
+  <si>
+    <t>Klassenverantwortlichkeit</t>
+  </si>
+  <si>
+    <t>Zusammenarbeitsdiagramme</t>
+  </si>
+  <si>
+    <t>Dokumentfinish</t>
   </si>
 </sst>
 </file>
@@ -708,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U36"/>
+  <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +838,7 @@
       </c>
       <c r="Q4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -839,7 +854,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -880,7 +895,7 @@
       </c>
       <c r="Q5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -896,7 +911,7 @@
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -937,7 +952,7 @@
       </c>
       <c r="Q6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -953,7 +968,7 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -994,7 +1009,7 @@
       </c>
       <c r="Q7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1010,7 +1025,7 @@
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1048,7 +1063,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
@@ -1064,7 +1079,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1258,7 +1273,7 @@
       </c>
       <c r="R14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1270,7 +1285,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1315,7 +1330,7 @@
       </c>
       <c r="R15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1327,7 +1342,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1372,7 +1387,7 @@
       </c>
       <c r="R16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1384,7 +1399,7 @@
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1429,7 +1444,7 @@
       </c>
       <c r="R17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1441,7 +1456,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1483,7 +1498,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
@@ -1495,7 +1510,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1685,11 +1700,11 @@
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
@@ -1701,7 +1716,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1742,11 +1757,11 @@
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
@@ -1758,7 +1773,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1780,6 +1795,9 @@
       <c r="G26">
         <v>16</v>
       </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
@@ -1796,11 +1814,11 @@
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
@@ -1812,7 +1830,7 @@
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1834,6 +1852,9 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
@@ -1850,11 +1871,11 @@
       </c>
       <c r="Q27">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
@@ -1866,7 +1887,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -1888,6 +1909,9 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
       <c r="N28" t="s">
         <v>47</v>
       </c>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
@@ -1917,7 +1941,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -1939,6 +1963,9 @@
       <c r="G29">
         <v>2</v>
       </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1959,6 +1986,9 @@
       <c r="G30">
         <v>4</v>
       </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1979,6 +2009,9 @@
       <c r="G31">
         <v>3</v>
       </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
       <c r="N31" t="s">
         <v>67</v>
       </c>
@@ -2010,7 +2043,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2037,7 +2070,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2085,7 +2118,7 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2097,6 +2130,205 @@
         <v>21</v>
       </c>
       <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47">
         <v>4</v>
       </c>
     </row>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -301,6 +301,21 @@
   </si>
   <si>
     <t>Dokumentfinish</t>
+  </si>
+  <si>
+    <t>Crane Logik</t>
+  </si>
+  <si>
+    <t>Quick Game</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Statistik</t>
   </si>
 </sst>
 </file>
@@ -723,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U47"/>
+  <dimension ref="B2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1288,7 @@
       </c>
       <c r="R14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1285,7 +1300,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1330,7 +1345,7 @@
       </c>
       <c r="R15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1342,7 +1357,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1444,7 +1459,7 @@
       </c>
       <c r="R17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1456,7 +1471,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1498,7 +1513,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
@@ -1510,7 +1525,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1704,7 +1719,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
@@ -1716,7 +1731,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1761,7 +1776,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
@@ -1773,7 +1788,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1875,7 +1890,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
@@ -1887,7 +1902,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -1929,7 +1944,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
@@ -1941,7 +1956,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2295,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -2312,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -2330,6 +2345,91 @@
       </c>
       <c r="G47">
         <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="R4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -869,7 +869,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="R14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="R15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="R16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="R17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -2278,6 +2278,9 @@
       <c r="G43">
         <v>4</v>
       </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -2364,7 +2367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -2429,6 +2432,9 @@
         <v>21</v>
       </c>
       <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
     </row>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -316,12 +316,33 @@
   </si>
   <si>
     <t>Statistik</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Präsentation Demo</t>
+  </si>
+  <si>
+    <t>Bewertung und Levelgenerator</t>
+  </si>
+  <si>
+    <t>Präsentation Grafik</t>
+  </si>
+  <si>
+    <t>Score Bildschirm</t>
+  </si>
+  <si>
+    <t>26-30.11 CM weg Strassburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,16 +380,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -436,9 +462,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:H300" totalsRowShown="0">
-  <autoFilter ref="B3:H300"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:I300" totalsRowShown="0">
+  <autoFilter ref="B3:I300"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Phase "/>
     <tableColumn id="2" name="Auftrag"/>
     <tableColumn id="3" name="Arbeitspaket"/>
@@ -446,6 +472,9 @@
     <tableColumn id="5" name="Wer"/>
     <tableColumn id="6" name="Prognostiziert"/>
     <tableColumn id="7" name="Aufwand"/>
+    <tableColumn id="8" name="Differenz" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -738,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U52"/>
+  <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +819,9 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
       <c r="N3" t="s">
         <v>37</v>
       </c>
@@ -837,6 +869,10 @@
       <c r="H4">
         <v>8</v>
       </c>
+      <c r="I4" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
@@ -857,7 +893,7 @@
       </c>
       <c r="R4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -869,7 +905,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -894,6 +930,10 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
@@ -914,7 +954,7 @@
       </c>
       <c r="R5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -926,7 +966,7 @@
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -951,6 +991,10 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
@@ -967,11 +1011,11 @@
       </c>
       <c r="Q6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -983,7 +1027,7 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1008,6 +1052,10 @@
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="I7" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M7" t="s">
         <v>11</v>
       </c>
@@ -1024,11 +1072,11 @@
       </c>
       <c r="Q7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1040,7 +1088,7 @@
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1065,6 +1113,10 @@
       <c r="H8">
         <v>2</v>
       </c>
+      <c r="I8" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
@@ -1078,11 +1130,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
@@ -1094,7 +1146,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1119,6 +1171,10 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1142,6 +1198,10 @@
       <c r="H10">
         <v>2</v>
       </c>
+      <c r="I10" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1165,6 +1225,10 @@
       <c r="H11">
         <v>2</v>
       </c>
+      <c r="I11" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1187,6 +1251,10 @@
       </c>
       <c r="H12">
         <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>48</v>
@@ -1221,6 +1289,10 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N13" t="s">
         <v>37</v>
       </c>
@@ -1268,6 +1340,10 @@
       <c r="H14">
         <v>6</v>
       </c>
+      <c r="I14" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1364,7 @@
       </c>
       <c r="R14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1300,7 +1376,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1325,6 +1401,10 @@
       <c r="H15">
         <v>16</v>
       </c>
+      <c r="I15" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
@@ -1345,7 +1425,7 @@
       </c>
       <c r="R15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1357,7 +1437,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1382,6 +1462,10 @@
       <c r="H16">
         <v>4</v>
       </c>
+      <c r="I16" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1486,7 @@
       </c>
       <c r="R16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1414,7 +1498,7 @@
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1439,6 +1523,10 @@
       <c r="H17">
         <v>8</v>
       </c>
+      <c r="I17" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M17" t="s">
         <v>11</v>
       </c>
@@ -1496,6 +1584,10 @@
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="I18" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N18" t="s">
         <v>47</v>
       </c>
@@ -1513,7 +1605,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
@@ -1525,7 +1617,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1550,6 +1642,10 @@
       <c r="H19">
         <v>2</v>
       </c>
+      <c r="I19" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1573,6 +1669,10 @@
       <c r="H20">
         <v>4</v>
       </c>
+      <c r="I20" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1596,6 +1696,10 @@
       <c r="H21">
         <v>4</v>
       </c>
+      <c r="I21" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1618,6 +1722,10 @@
       </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>89</v>
@@ -1652,6 +1760,10 @@
       <c r="H23">
         <v>2</v>
       </c>
+      <c r="I23" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N23" t="s">
         <v>37</v>
       </c>
@@ -1699,6 +1811,10 @@
       <c r="H24">
         <v>2</v>
       </c>
+      <c r="I24" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
@@ -1756,6 +1872,10 @@
       <c r="H25">
         <v>16</v>
       </c>
+      <c r="I25" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1896,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
@@ -1788,7 +1908,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1813,6 +1933,10 @@
       <c r="H26">
         <v>16</v>
       </c>
+      <c r="I26" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M26" t="s">
         <v>20</v>
       </c>
@@ -1829,11 +1953,11 @@
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
@@ -1845,7 +1969,7 @@
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1870,6 +1994,10 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
@@ -1886,11 +2014,11 @@
       </c>
       <c r="Q27">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
@@ -1902,7 +2030,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -1927,6 +2055,10 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N28" t="s">
         <v>47</v>
       </c>
@@ -1940,11 +2072,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
@@ -1956,7 +2088,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -1981,6 +2113,10 @@
       <c r="H29">
         <v>5</v>
       </c>
+      <c r="I29" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2004,6 +2140,10 @@
       <c r="H30">
         <v>4</v>
       </c>
+      <c r="I30" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -2027,6 +2167,10 @@
       <c r="H31">
         <v>4</v>
       </c>
+      <c r="I31" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>-1</v>
+      </c>
       <c r="N31" t="s">
         <v>67</v>
       </c>
@@ -2053,12 +2197,19 @@
       <c r="G32">
         <v>3</v>
       </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N32" t="s">
         <v>68</v>
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2080,12 +2231,19 @@
       <c r="G33">
         <v>5</v>
       </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
       <c r="N33" t="s">
         <v>69</v>
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2107,6 +2265,13 @@
       <c r="G34">
         <v>3</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -2127,6 +2292,13 @@
       <c r="G35">
         <v>3</v>
       </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -2150,6 +2322,10 @@
       <c r="H36">
         <v>5</v>
       </c>
+      <c r="I36" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -2170,6 +2346,10 @@
       <c r="G37">
         <v>2</v>
       </c>
+      <c r="I37" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -2190,6 +2370,10 @@
       <c r="G38">
         <v>4</v>
       </c>
+      <c r="I38" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -2207,6 +2391,10 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="I39" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -2224,6 +2412,10 @@
       <c r="G40">
         <v>2</v>
       </c>
+      <c r="I40" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -2241,6 +2433,10 @@
       <c r="G41">
         <v>8</v>
       </c>
+      <c r="I41" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2258,6 +2454,10 @@
       <c r="G42">
         <v>4</v>
       </c>
+      <c r="I42" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -2281,6 +2481,10 @@
       <c r="H43">
         <v>2</v>
       </c>
+      <c r="I43" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -2298,6 +2502,13 @@
       <c r="G44">
         <v>4</v>
       </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2315,6 +2526,13 @@
       <c r="G45">
         <v>2</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2332,6 +2550,13 @@
       <c r="G46">
         <v>2</v>
       </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2349,6 +2574,13 @@
       <c r="G47">
         <v>4</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2366,8 +2598,15 @@
       <c r="G48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -2383,8 +2622,15 @@
       <c r="G49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -2400,8 +2646,12 @@
       <c r="G50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -2417,8 +2667,15 @@
       <c r="G51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -2436,6 +2693,1561 @@
       </c>
       <c r="H52">
         <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I57" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I58" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I59" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I60" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I61" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I62" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I63" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I64" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I134" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I142" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I154" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I160" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I164" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I170" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I172" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I174" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I176" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I178" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I192" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I200" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I201" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I202" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I203" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I204" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I205" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I207" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I209" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I211" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I212" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I213" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I214" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I215" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I216" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I218" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I222" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I224" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I227" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I233" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I235" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I237" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I239" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I240" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I241" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I244" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I245" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I247" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I249" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I250" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I251" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I252" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I253" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I256" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I257" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I258" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I259" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I260" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I261" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I262" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I263" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I264" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I265" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I267" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I268" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I269" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I270" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I271" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I273" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I275" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I276" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I277" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I278" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I282" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I283" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I284" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I285" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I286" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I287" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I288" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I289" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I291" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I293" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I295" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300" s="2">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="122">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -334,6 +334,54 @@
   </si>
   <si>
     <t>26-30.11 CM weg Strassburg</t>
+  </si>
+  <si>
+    <t>DBB</t>
+  </si>
+  <si>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>EBAC</t>
+  </si>
+  <si>
+    <t>EBCC</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>ECC</t>
+  </si>
+  <si>
+    <t>Statistik Screen</t>
+  </si>
+  <si>
+    <t>Career Game</t>
+  </si>
+  <si>
+    <t>Infinite Game</t>
+  </si>
+  <si>
+    <t>Level for Career Game</t>
+  </si>
+  <si>
+    <t>Handicapmenu</t>
+  </si>
+  <si>
+    <t>EBCB</t>
+  </si>
+  <si>
+    <t>EBCA</t>
+  </si>
+  <si>
+    <t>Schlusspräsentation</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Ship Logik (Animation)</t>
   </si>
 </sst>
 </file>
@@ -382,15 +430,21 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
     </dxf>
@@ -470,9 +524,9 @@
     <tableColumn id="3" name="Arbeitspaket"/>
     <tableColumn id="4" name="Kennung"/>
     <tableColumn id="5" name="Wer"/>
-    <tableColumn id="6" name="Prognostiziert"/>
-    <tableColumn id="7" name="Aufwand"/>
-    <tableColumn id="8" name="Differenz" dataDxfId="0">
+    <tableColumn id="6" name="Prognostiziert" dataDxfId="1"/>
+    <tableColumn id="7" name="Aufwand" dataDxfId="0"/>
+    <tableColumn id="8" name="Differenz" dataDxfId="2">
       <calculatedColumnFormula>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -769,33 +823,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -863,13 +916,13 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -893,7 +946,7 @@
       </c>
       <c r="R4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -905,7 +958,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>43</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -924,13 +977,13 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -954,7 +1007,7 @@
       </c>
       <c r="R5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="S5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -966,7 +1019,7 @@
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>45</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -985,13 +1038,13 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1015,7 +1068,7 @@
       </c>
       <c r="R6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="S6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1027,7 +1080,7 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>36</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1046,13 +1099,13 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1076,7 +1129,7 @@
       </c>
       <c r="R7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C2",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="S7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1088,7 +1141,7 @@
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1107,13 +1160,13 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1134,7 +1187,7 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
@@ -1146,7 +1199,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1165,13 +1218,13 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1192,13 +1245,13 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1219,13 +1272,13 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1246,26 +1299,26 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="I12" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1283,13 +1336,13 @@
       <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1334,13 +1387,13 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1368,7 +1421,7 @@
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1376,7 +1429,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1395,13 +1448,13 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>16</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>16</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1429,7 +1482,7 @@
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1437,7 +1490,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1456,13 +1509,13 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1490,7 +1543,7 @@
       </c>
       <c r="S16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1498,7 +1551,7 @@
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1517,13 +1570,13 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>8</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1551,7 +1604,7 @@
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1559,7 +1612,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1578,13 +1631,13 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1609,7 +1662,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
@@ -1617,7 +1670,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1636,13 +1689,13 @@
       <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1663,13 +1716,13 @@
       <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1690,13 +1743,13 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1717,26 +1770,26 @@
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="I22" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1754,13 +1807,13 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1805,13 +1858,13 @@
       <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1835,11 +1888,11 @@
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
@@ -1847,7 +1900,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1866,13 +1919,13 @@
       <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>16</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>16</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1896,11 +1949,11 @@
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <f t="shared" si="5"/>
@@ -1908,7 +1961,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1927,13 +1980,13 @@
       <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>16</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>16</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -1957,11 +2010,11 @@
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
@@ -1969,7 +2022,7 @@
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>12</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1988,13 +2041,13 @@
       <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2018,11 +2071,11 @@
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
@@ -2030,7 +2083,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2049,13 +2102,13 @@
       <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2076,11 +2129,11 @@
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
@@ -2088,7 +2141,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2107,13 +2160,13 @@
       <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>5</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>-3</v>
       </c>
@@ -2134,13 +2187,13 @@
       <c r="F30" t="s">
         <v>19</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2161,13 +2214,13 @@
       <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>4</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>-1</v>
       </c>
@@ -2194,13 +2247,13 @@
       <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2209,7 +2262,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2228,13 +2281,13 @@
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>5</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2243,7 +2296,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2262,13 +2315,13 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>3</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
       </c>
@@ -2289,13 +2342,13 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
       </c>
@@ -2316,13 +2369,13 @@
       <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>4</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>5</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>-1</v>
       </c>
@@ -2343,12 +2396,15 @@
       <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -2367,12 +2423,15 @@
       <c r="F38" t="s">
         <v>21</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>4</v>
       </c>
-      <c r="I38" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H38" s="1">
         <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -2385,15 +2444,21 @@
       <c r="D39" t="s">
         <v>72</v>
       </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="I39" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H39" s="1">
         <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -2406,15 +2471,21 @@
       <c r="D40" t="s">
         <v>92</v>
       </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H40" s="1">
         <v>2</v>
+      </c>
+      <c r="I40" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -2427,15 +2498,21 @@
       <c r="D41" t="s">
         <v>93</v>
       </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>8</v>
       </c>
-      <c r="I41" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>8</v>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -2448,15 +2525,21 @@
       <c r="D42" t="s">
         <v>94</v>
       </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>4</v>
       </c>
-      <c r="I42" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H42" s="1">
         <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -2475,13 +2558,13 @@
       <c r="F43" t="s">
         <v>21</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>4</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
       </c>
@@ -2496,16 +2579,19 @@
       <c r="D44" t="s">
         <v>76</v>
       </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>4</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>3</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>1</v>
       </c>
@@ -2520,16 +2606,19 @@
       <c r="D45" t="s">
         <v>78</v>
       </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
       </c>
@@ -2544,16 +2633,19 @@
       <c r="D46" t="s">
         <v>73</v>
       </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>2</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2568,18 +2660,21 @@
       <c r="D47" t="s">
         <v>77</v>
       </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>4</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -2592,16 +2687,19 @@
       <c r="D48" t="s">
         <v>95</v>
       </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>4</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
       </c>
@@ -2616,18 +2714,21 @@
       <c r="D49" t="s">
         <v>96</v>
       </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>4</v>
       </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>1</v>
+      <c r="H49" s="1">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -2640,15 +2741,21 @@
       <c r="D50" t="s">
         <v>97</v>
       </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>4</v>
       </c>
-      <c r="I50" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -2661,16 +2768,19 @@
       <c r="D51" t="s">
         <v>98</v>
       </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
       <c r="F51" t="s">
         <v>21</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>2</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>3</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>-1</v>
       </c>
@@ -2685,16 +2795,19 @@
       <c r="D52" t="s">
         <v>99</v>
       </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
       <c r="F52" t="s">
         <v>21</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
@@ -2709,15 +2822,21 @@
       <c r="D53" t="s">
         <v>101</v>
       </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>2</v>
       </c>
-      <c r="I53" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H53" s="1">
         <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -2730,15 +2849,21 @@
       <c r="D54" t="s">
         <v>102</v>
       </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
       <c r="F54" t="s">
         <v>21</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="I54" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -2751,15 +2876,21 @@
       <c r="D55" t="s">
         <v>103</v>
       </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+      <c r="H55" s="1">
         <v>2</v>
+      </c>
+      <c r="I55" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -2772,1480 +2903,2144 @@
       <c r="D56" t="s">
         <v>104</v>
       </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>3</v>
       </c>
-      <c r="I56" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>-1</v>
       </c>
       <c r="N56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I57" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I58" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I59" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1">
+        <v>6</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I60" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I61" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I62" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I63" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I64" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I126" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I128" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I136" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I137" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I140" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I142" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I154" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I156" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I160" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I164" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I166" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I168" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I170" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I172" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I176" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I186" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I188" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I190" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I192" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I200" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I202" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I207" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I208" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I219" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I223" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I227" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I233" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I235" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I237" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I239" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I244" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I245" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I246" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I247" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I248" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I249" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I250" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I251" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I252" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I253" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I254" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I255" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I256" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I257" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I258" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I259" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I260" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I261" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I262" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I263" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I264" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I265" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I266" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I267" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I268" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I269" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I270" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I271" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I272" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I273" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I274" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I275" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I276" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I277" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I278" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I279" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I280" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I281" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I282" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I283" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I284" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I285" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I286" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I287" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I288" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I289" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I290" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I291" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I292" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I293" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I294" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I295" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I296" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I297" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I298" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I299" s="2">
-        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I300" s="2">
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1">
+        <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="126">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -354,21 +354,12 @@
     <t>ECC</t>
   </si>
   <si>
-    <t>Statistik Screen</t>
-  </si>
-  <si>
     <t>Career Game</t>
   </si>
   <si>
     <t>Infinite Game</t>
   </si>
   <si>
-    <t>Level for Career Game</t>
-  </si>
-  <si>
-    <t>Handicapmenu</t>
-  </si>
-  <si>
     <t>EBCB</t>
   </si>
   <si>
@@ -378,10 +369,31 @@
     <t>Schlusspräsentation</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Ship Logik (Animation)</t>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Statistik Bildschirm</t>
+  </si>
+  <si>
+    <t>Level erstellen</t>
+  </si>
+  <si>
+    <t>Scoreverteilung verfeinern</t>
+  </si>
+  <si>
+    <t>Game abbrechen mit zurück</t>
+  </si>
+  <si>
+    <t>Schluss Bildschirm</t>
+  </si>
+  <si>
+    <t>Anzeigen Bruchgefahr</t>
+  </si>
+  <si>
+    <t>Anzeigen Kentergefahr</t>
+  </si>
+  <si>
+    <t>Abstract Game</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -453,6 +465,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -524,9 +539,9 @@
     <tableColumn id="3" name="Arbeitspaket"/>
     <tableColumn id="4" name="Kennung"/>
     <tableColumn id="5" name="Wer"/>
-    <tableColumn id="6" name="Prognostiziert" dataDxfId="1"/>
-    <tableColumn id="7" name="Aufwand" dataDxfId="0"/>
-    <tableColumn id="8" name="Differenz" dataDxfId="2">
+    <tableColumn id="6" name="Prognostiziert" dataDxfId="2"/>
+    <tableColumn id="7" name="Aufwand" dataDxfId="1"/>
+    <tableColumn id="8" name="Differenz" dataDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -577,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,11 +838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
@@ -950,7 +965,7 @@
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -958,7 +973,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>51.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1191,7 +1206,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
@@ -1199,7 +1214,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1421,7 +1436,7 @@
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1429,7 +1444,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1482,7 +1497,7 @@
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1490,7 +1505,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1604,7 +1619,7 @@
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1612,7 +1627,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1662,7 +1677,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
@@ -1670,7 +1685,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1892,7 +1907,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
@@ -1900,7 +1915,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1953,7 +1968,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T25">
         <f t="shared" si="5"/>
@@ -1961,7 +1976,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -2075,7 +2090,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
@@ -2083,7 +2098,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2133,7 +2148,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
@@ -2141,7 +2156,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2262,7 +2277,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2296,7 +2311,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2931,13 +2946,13 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G57" s="1">
         <v>4</v>
@@ -2956,10 +2971,10 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2981,21 +2996,21 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -3006,21 +3021,21 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -3031,21 +3046,23 @@
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="1">
-        <v>4</v>
-      </c>
-      <c r="H61" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
       <c r="I61" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -3053,13 +3070,13 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
@@ -3067,10 +3084,12 @@
       <c r="G62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
       <c r="I62" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -3106,13 +3125,13 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
@@ -3128,24 +3147,24 @@
         <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -3156,10 +3175,10 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -3174,27 +3193,78 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G67" s="1"/>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="1"/>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G69" s="1"/>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -5068,7 +5138,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5080,7 +5150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="130">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>Abstract Game</t>
+  </si>
+  <si>
+    <t>Anleitung</t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Javadoc</t>
   </si>
 </sst>
 </file>
@@ -838,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +977,7 @@
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -973,7 +985,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>56.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1026,7 +1038,7 @@
       </c>
       <c r="S5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1034,7 +1046,7 @@
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>51.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -1087,7 +1099,7 @@
       </c>
       <c r="S6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1095,7 +1107,7 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>47.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1148,7 +1160,7 @@
       </c>
       <c r="S7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1156,7 +1168,7 @@
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1206,7 +1218,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
@@ -1214,7 +1226,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1436,7 +1448,7 @@
       </c>
       <c r="S14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1444,7 +1456,7 @@
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1497,7 +1509,7 @@
       </c>
       <c r="S15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1558,7 +1570,7 @@
       </c>
       <c r="S16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1566,7 +1578,7 @@
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1619,7 +1631,7 @@
       </c>
       <c r="S17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1627,7 +1639,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1677,7 +1689,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
@@ -1685,7 +1697,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1907,7 +1919,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
@@ -1915,7 +1927,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1968,7 +1980,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T25">
         <f t="shared" si="5"/>
@@ -1976,7 +1988,7 @@
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -2029,7 +2041,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
@@ -2037,7 +2049,7 @@
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -2090,7 +2102,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
@@ -2098,7 +2110,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2148,7 +2160,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
@@ -2156,7 +2168,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2277,7 +2289,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2311,7 +2323,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -3007,10 +3019,12 @@
       <c r="G59" s="1">
         <v>3</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
       <c r="I59" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -3032,10 +3046,12 @@
       <c r="G60" s="1">
         <v>2</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
       <c r="I60" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -3082,14 +3098,14 @@
         <v>21</v>
       </c>
       <c r="G62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" s="1">
         <v>2</v>
       </c>
       <c r="I62" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -3109,12 +3125,14 @@
         <v>36</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
-      </c>
-      <c r="H63" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H63" s="1">
+        <v>12</v>
+      </c>
       <c r="I63" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
@@ -3136,10 +3154,12 @@
       <c r="G64" s="1">
         <v>2</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
       <c r="I64" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -3161,10 +3181,12 @@
       <c r="G65" s="1">
         <v>2</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
       <c r="I65" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -3184,12 +3206,12 @@
         <v>20</v>
       </c>
       <c r="G66" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -3211,10 +3233,12 @@
       <c r="G67" s="1">
         <v>3</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
       <c r="I67" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -3236,10 +3260,12 @@
       <c r="G68" s="1">
         <v>3</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
       <c r="I68" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -3261,82 +3287,237 @@
       <c r="G69" s="1">
         <v>3</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
       <c r="I69" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="1"/>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="1"/>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G73" s="1"/>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G74" s="1"/>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="1">
+        <v>12</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G75" s="1"/>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G76" s="1"/>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G77" s="1"/>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="1"/>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>60.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="S7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>43.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2969,10 +2969,12 @@
       <c r="G57" s="1">
         <v>4</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
       <c r="I57" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -3489,10 +3491,12 @@
       <c r="G77" s="1">
         <v>2</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
       <c r="I77" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="141">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -406,6 +406,39 @@
   </si>
   <si>
     <t>Javadoc</t>
+  </si>
+  <si>
+    <t>Refactoring Abstract Game</t>
+  </si>
+  <si>
+    <t>Refactoring Load Rating</t>
+  </si>
+  <si>
+    <t>Refactoring Statistik</t>
+  </si>
+  <si>
+    <t>Refactoring Menu</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Advertisements</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Einführung Präsentation</t>
+  </si>
+  <si>
+    <t>Erweiterungen Präsentation</t>
+  </si>
+  <si>
+    <t>Abstract Game Animation</t>
+  </si>
+  <si>
+    <t>Ship Logik Ladehöhenindex</t>
   </si>
 </sst>
 </file>
@@ -850,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,15 +1010,15 @@
       </c>
       <c r="S4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>62.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1038,15 +1071,15 @@
       </c>
       <c r="S5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>60.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -1099,15 +1132,15 @@
       </c>
       <c r="S6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>54.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1160,15 +1193,15 @@
       </c>
       <c r="S7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=C3",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>47.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1218,15 +1251,15 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>225</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1452,11 +1485,11 @@
       </c>
       <c r="T14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1513,11 +1546,11 @@
       </c>
       <c r="T15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1574,11 +1607,11 @@
       </c>
       <c r="T16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1635,11 +1668,11 @@
       </c>
       <c r="T17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1693,11 +1726,11 @@
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -1919,15 +1952,15 @@
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U24">
         <f>SUM(O24:T24)</f>
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1980,15 +2013,15 @@
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U25">
         <f>SUM(O25:T25)</f>
-        <v>13.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -2041,15 +2074,15 @@
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="7">SUM(O26:T26)</f>
-        <v>13.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -2102,15 +2135,15 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="U27">
         <f t="shared" si="7"/>
-        <v>20.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -2160,15 +2193,15 @@
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2289,7 +2322,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>225</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2323,7 +2356,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2996,10 +3029,12 @@
       <c r="G58" s="1">
         <v>6</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
       <c r="I58" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -3210,10 +3245,12 @@
       <c r="G66" s="1">
         <v>8</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>6</v>
+      </c>
       <c r="I66" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -3316,10 +3353,12 @@
       <c r="G70" s="1">
         <v>3</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>2</v>
+      </c>
       <c r="I70" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -3341,10 +3380,12 @@
       <c r="G71" s="1">
         <v>2</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
       <c r="I71" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -3366,7 +3407,9 @@
       <c r="G72" s="1">
         <v>2</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
       <c r="I72" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>2</v>
@@ -3391,7 +3434,9 @@
       <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
       <c r="I73" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>1</v>
@@ -3416,10 +3461,12 @@
       <c r="G74" s="1">
         <v>12</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>12</v>
+      </c>
       <c r="I74" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -3441,10 +3488,12 @@
       <c r="G75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>4</v>
+      </c>
       <c r="I75" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3466,10 +3515,12 @@
       <c r="G76" s="1">
         <v>2</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>2</v>
+      </c>
       <c r="I76" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -3518,149 +3569,474 @@
       <c r="G78" s="1">
         <v>2</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>2</v>
+      </c>
       <c r="I78" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
       <c r="I79" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
       <c r="I80" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2</v>
+      </c>
       <c r="I81" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
       <c r="I82" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
       <c r="I83" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
       <c r="I84" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2</v>
+      </c>
       <c r="I85" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
       <c r="I86" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
       <c r="I87" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
       <c r="I88" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1">
+        <v>12</v>
+      </c>
+      <c r="H89" s="1">
+        <v>10</v>
+      </c>
       <c r="I89" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
       <c r="I90" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
       <c r="I91" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
       <c r="I92" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
       <c r="I93" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2</v>
+      </c>
       <c r="I94" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2</v>
+      </c>
       <c r="I95" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1">

--- a/Documents/Projektmanagement/Stundenerfassung.xlsx
+++ b/Documents/Projektmanagement/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="142">
   <si>
     <t>Projektskizze</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>Ship Logik Ladehöhenindex</t>
+  </si>
+  <si>
+    <t>Allgemeine Abschlussarbeiten</t>
   </si>
 </sst>
 </file>
@@ -883,14 +886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="9" width="12.7109375" customWidth="1"/>
@@ -1014,11 +1017,11 @@
       </c>
       <c r="T4">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="U4">
         <f>SUM(O4:T4)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1075,11 +1078,11 @@
       </c>
       <c r="T5">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="U5">
         <f>SUM(O5:T5)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -1136,11 +1139,11 @@
       </c>
       <c r="T6">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="U6">
         <f t="shared" ref="U6" si="0">SUM(O6:T6)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1197,11 +1200,11 @@
       </c>
       <c r="T7">
         <f>SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($H$4:$H$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="U7">
         <f>SUM(O7:T7)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1255,11 +1258,11 @@
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="U8">
         <f>SUM(O8:T8)</f>
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1485,11 +1488,11 @@
       </c>
       <c r="T14">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=RH")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U14">
         <f>SUM(O14:T14)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -1546,11 +1549,11 @@
       </c>
       <c r="T15">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=YM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U15">
         <f>SUM(O15:T15)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1607,11 +1610,11 @@
       </c>
       <c r="T16">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=CM")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U18" si="2">SUM(O16:T16)</f>
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -1668,11 +1671,11 @@
       </c>
       <c r="T17">
         <f>SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=EW")+(SUMIFS($G$4:$G$300,$B$4:$B$300, "=T1",$F$4:$F$300,"=Alle (*4)")/4)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -1726,11 +1729,11 @@
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -2322,7 +2325,7 @@
       </c>
       <c r="O32">
         <f>U8</f>
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2356,7 +2359,7 @@
       </c>
       <c r="O33">
         <f>O31-O32</f>
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -4037,8 +4040,27 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="1">
+        <v>12</v>
+      </c>
+      <c r="H96" s="1">
+        <v>12</v>
+      </c>
       <c r="I96" s="1">
         <f>Table4[[#This Row],[Prognostiziert]]-Table4[[#This Row],[Aufwand]]</f>
         <v>0</v>
